--- a/data/stat probs/paolo banchero stat probs - condition.xlsx
+++ b/data/stat probs/paolo banchero stat probs - condition.xlsx
@@ -19,12 +19,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="det 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 full" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
@@ -583,28 +583,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1737,28 +1737,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2475,28 +2475,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4827,16 +4827,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -4853,22 +4853,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -4885,22 +4885,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -4917,16 +4917,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4943,22 +4943,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -4975,22 +4975,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5007,22 +5007,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5039,22 +5039,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5071,16 +5071,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5103,16 +5103,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5135,16 +5135,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5167,10 +5167,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5199,10 +5199,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -5231,10 +5231,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -5263,10 +5263,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -5295,10 +5295,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -5327,10 +5327,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -5359,10 +5359,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -5391,10 +5391,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -5423,10 +5423,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -5487,10 +5487,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -5519,10 +5519,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -5551,10 +5551,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -5583,10 +5583,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -5615,10 +5615,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -5647,10 +5647,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -5745,28 +5745,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -5789,16 +5789,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -5815,22 +5815,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -5879,16 +5879,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5905,22 +5905,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5937,22 +5937,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5969,22 +5969,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6001,22 +6001,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -6033,16 +6033,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6065,16 +6065,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6097,16 +6097,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -6129,10 +6129,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6161,10 +6161,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6193,10 +6193,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6225,10 +6225,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6257,10 +6257,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6289,10 +6289,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6321,10 +6321,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6353,10 +6353,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6385,10 +6385,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -6417,10 +6417,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6481,10 +6481,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -6513,10 +6513,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -6545,10 +6545,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -6577,10 +6577,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -6609,10 +6609,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -6639,6 +6639,1930 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>75</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>75</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>75</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="n">
+        <v>75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>75</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+      <c r="D29" t="n">
+        <v>75</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6707,28 +8631,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -7792,7 +9716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7861,28 +9785,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -8938,2186 +10862,6 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>90</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>90</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>90</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" t="n">
-        <v>80</v>
-      </c>
-      <c r="H5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
-        <v>80</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40</v>
-      </c>
-      <c r="F9" t="n">
-        <v>60</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>40</v>
-      </c>
-      <c r="F10" t="n">
-        <v>60</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40</v>
-      </c>
-      <c r="F11" t="n">
-        <v>60</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>20</v>
-      </c>
-      <c r="F12" t="n">
-        <v>80</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>90</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>90</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="n">
-        <v>90</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>90</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>90</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>80</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>80</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>80</v>
-      </c>
-      <c r="D19" t="n">
-        <v>20</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>80</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" t="n">
-        <v>50</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>50</v>
-      </c>
-      <c r="D22" t="n">
-        <v>50</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" t="n">
-        <v>60</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>30</v>
-      </c>
-      <c r="D24" t="n">
-        <v>70</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20</v>
-      </c>
-      <c r="D26" t="n">
-        <v>80</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" t="n">
-        <v>80</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>20</v>
-      </c>
-      <c r="D28" t="n">
-        <v>80</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" t="n">
-        <v>90</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>10</v>
-      </c>
-      <c r="D30" t="n">
-        <v>90</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" t="n">
-        <v>90</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>100</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
-      <c r="D32" t="n">
-        <v>90</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>100</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>100</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="n">
-        <v>90</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>100</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>100</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>90</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>90</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>90</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>80</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" t="n">
-        <v>80</v>
-      </c>
-      <c r="H5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>70</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
-        <v>80</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>60</v>
-      </c>
-      <c r="F8" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40</v>
-      </c>
-      <c r="F9" t="n">
-        <v>60</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>40</v>
-      </c>
-      <c r="F10" t="n">
-        <v>60</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40</v>
-      </c>
-      <c r="F11" t="n">
-        <v>60</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>20</v>
-      </c>
-      <c r="F12" t="n">
-        <v>80</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>90</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>90</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="n">
-        <v>90</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>90</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>90</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>80</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>80</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>80</v>
-      </c>
-      <c r="D19" t="n">
-        <v>20</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>80</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" t="n">
-        <v>50</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>50</v>
-      </c>
-      <c r="D22" t="n">
-        <v>50</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" t="n">
-        <v>60</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>30</v>
-      </c>
-      <c r="D24" t="n">
-        <v>70</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20</v>
-      </c>
-      <c r="D26" t="n">
-        <v>80</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" t="n">
-        <v>80</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>20</v>
-      </c>
-      <c r="D28" t="n">
-        <v>80</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" t="n">
-        <v>90</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>10</v>
-      </c>
-      <c r="D30" t="n">
-        <v>90</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10</v>
-      </c>
-      <c r="D31" t="n">
-        <v>90</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>100</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10</v>
-      </c>
-      <c r="D32" t="n">
-        <v>90</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>100</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>100</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="n">
-        <v>10</v>
-      </c>
-      <c r="D33" t="n">
-        <v>90</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>100</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>100</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11195,28 +10939,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -12253,28 +11997,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -13407,28 +13151,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -14465,28 +14209,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15523,28 +15267,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -16581,28 +16325,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17639,28 +17383,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18697,28 +18441,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19563,28 +19307,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20429,28 +20173,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21295,28 +21039,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22161,28 +21905,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -22931,28 +22675,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -24085,28 +23829,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -24855,28 +24599,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25625,28 +25369,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26395,28 +26139,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -27453,28 +27197,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -28511,22 +28255,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29345,22 +29089,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30179,28 +29923,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -31269,28 +31013,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -32359,28 +32103,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33033,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -34187,28 +33931,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34861,28 +34605,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35823,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36785,28 +36529,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -37491,28 +37235,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -38197,28 +37941,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39127,28 +38871,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40057,28 +39801,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -40795,28 +40539,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -41533,28 +41277,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42463,28 +42207,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -43553,28 +43297,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44483,28 +44227,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -45573,28 +45317,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -46663,22 +46407,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -47689,22 +47433,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -48715,28 +48459,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -49549,28 +49293,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -50383,22 +50127,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -50833,22 +50577,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51283,28 +51027,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -52117,28 +51861,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -53207,28 +52951,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -54041,22 +53785,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -54555,22 +54299,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55069,22 +54813,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -55871,22 +55615,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -56673,28 +56417,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -57347,28 +57091,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -58021,22 +57765,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -58471,22 +58215,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -58921,28 +58665,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -59947,28 +59691,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -60973,28 +60717,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -61999,28 +61743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -63089,28 +62833,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64179,28 +63923,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -65141,28 +64885,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -66103,28 +65847,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -66873,28 +66617,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -67643,28 +67387,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -68797,28 +68541,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -69951,28 +69695,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -70849,28 +70593,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -71875,28 +71619,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -72773,28 +72517,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -73671,28 +73415,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -74569,22 +74313,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -74827,22 +74571,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -75085,28 +74829,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -75759,28 +75503,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -76433,28 +76177,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -77491,28 +77235,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -78549,28 +78293,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -79287,28 +79031,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -80025,28 +79769,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -80763,28 +80507,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -81469,28 +81213,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -82175,28 +81919,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -83233,28 +82977,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -84291,28 +84035,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -84965,28 +84709,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
